--- a/nlqs/nalir_nlidb_mas_complete.nlqs.xlsx
+++ b/nlqs/nalir_nlidb_mas_complete.nlqs.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="nalir" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1917,7 +1917,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>63</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>65</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>66</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>69</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>75</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>79</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>132</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>138</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>143</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>144</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>146</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>147</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>148</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>149</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>150</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>151</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>152</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>174</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>158</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>193</v>
       </c>
